--- a/docs/assets/disciplinas/LOQ4022.xlsx
+++ b/docs/assets/disciplinas/LOQ4022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EQD-5,EQN-6</t>
+    <t>EQD-8,EQN-9</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>Requisitos:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4002 -  Reatores Quimicos  (Requisito fraco)
+</t>
   </si>
   <si>
     <t xml:space="preserve">LOQ4055 -  Quimica Inorgânica  (Requisito fraco)
@@ -495,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,6 +726,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOQ4022.xlsx
+++ b/docs/assets/disciplinas/LOQ4022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,12 +70,15 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer uma visão atual dos processos industriais que utilizam a conversão química como rota de transformação da matéria prima em produto. Serão estudados os processos das indústrias de química de base, de transformação.</t>
+    <t>Proporcionar aos alunos uma visão atual dos processos industriais que utilizam a conversão química como rota de transformação da matéria prima em produto. Serão estudados os processos das indústrias de química de base e de transformação.</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide students with a current view of industrial processes that use chemical conversion as a route to transform raw material into product. The processes of the basic chemical and transformation industries will be studied.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,54 +88,52 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução ao Estudo dos Processos Químicos Industriais. Relacionamento com a Engenharia Química; Derivados Inorgânicos do Nitrogênio; Ácido Sulfúrico; Fósforo e Ácido Fosfórico; Fertilizantes; Indústrias de Cloro Álcalis; Indústrias de Vidros e Materiais Cerâmicos; Carga e Pigmentos Inorgânicos.</t>
+    <t>Introdução aos Processos Químicos Industriais; NPK / Fertilizantes; Ácido Sulfúrico; Cloro Álcalis; Papel e Celulose; Açúcar e álcool;  Processos Biotecnológicos;</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Introduction to Industrial Chemical Processes; NPK / Fertilizers; Sulfuric Acid; Chlorine Alkali; Paper and Cellulose; Sugar and alcohol; Biotechnological Processes.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução ao estudo dos Processos Químicos Industriais. Relacionamento com a Engenharia Química. Fundamentos dos processos químicos. Condução dos processos (batelada X contínuo). Fluxogramas. Derivados inorgânicos do nitrogênio - Introdução Amônia. Generalidades. Amônia. Produção sintética pelo processo Haber Bosch. Uréia: Generalidades. Processo de Fabricação. Nitrato de Amônia: Generalidades - Processo de Fabricação. Acído Nítrico. Generalidades. Processo de Fabricação Ácido Sulfúrico. Generalidades. Processo de Fabricação. Concentração. Fósforo e Ácido fosfórico. Generalidades. Matérias Primas. Produção de ácido fosfórico.  Indústrias de cloro álcalis. Generalidades. Matérias primas. Produção de barrilha e bicarbonato de sódio. Indústria de cloro e álcalis: produção de cloro e soda caústica. Células a diafragma.e mercúrio. Comparação. Ácido Clorídrico: fabricação e aplicações. Indústrias de vidros e materiais cerâmicos: matérias primas e fabricação.</t>
+    <t>.Introdução aos Processos Químicos Industriais; 2.NPK / Fertilizantes3.Ácido Sulfúrico; 4.Cloro Álcalis; 5.Papel e Celulose; 6.Açúcar e álcool; 7.Processos Biotecnológicos.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>1. Introduction to Industrial Chemical Processes;2. NPK / Fertilizers3. Sulfuric Acid;4. Chlorine Alkali;5. Paper and Cellulose;6. Sugar and alcohol;7. Biotechnological Processes;</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas provas (P1 e P2) e a Nota Final (NF) será a média aritmética das mesmas.</t>
+    <t>Aulas expositivas, desenvolvimento de trabalhos e exercícios em sala e fora de sala de aula, discussão de casos práticos.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão aprovados os alunos com NF maior ou igual a 5,0 e frequência superior a 70%.</t>
+    <t>Provas em sala, entrega de trabalhos e exercícios ou casos práticos elaborados fora de sala de aula.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Será feita a Recuperação( REC) para alunos com NF maior ou igual a 3,0 e menor que 5,0 e frequência superior a 70%. Será considerado aprovado o aluno que tenha obtido Média Final (MF) igual ou superior a 5,0, sendo MF= (NF+ REC)/2 .                                                 Na semana anterior à REC será dada uma aula de recordação de toda a matéria apresentada.</t>
+    <t>Frequência mínima de 70% e nota igual ou superior a 3,00 e inferior a 5,00 possibilita prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1. LIMA, L. R. Elementos Básicos de Engenharia Química. São Paulo: Editora McGraw-Hill, 1978.
-2. SHERWOOD, T. K. Projeto de Processos da Indústria Química. São Paulo: Editora Edgard Blucher, 1972.
-3. SHREVE, R.N.; BRINK, J.A. Indústrias de Processos Químicos. Rio de Janeiro: Editora Guanabara Dois, 1980.
-4. BÜCHNER, W. et alli. Industrial Inorganic Chemistry. Verlagsgesellschaft mbH: VCH, 1991.
-5. KUZNETSOV, D. Chemical Engineering. Moscow: Mir Publishers, 1969. 
-6. CONSIDINE, D. M. Chemical and Process Technology Encyclopedia. São Paulo: McGraw-Hill, 1974. 
-7. LEWIS, B. T. Facilities and Plant Engineering Handbook. New York: McGraw-Hill, 1973. 
-8. INORGANIC CHEMICALS. Catálogo Técnico, ICI, 1978.
- 9. DUECKER, W.W.; WEST, J.R. The Manufacture of Sulfuric Acid. New York : Reinhold, 1959.</t>
+    <t>Ullmann’s encyclopedia of industrial chemistry; Editorial advisory board, Giuseppe Bellussi et al.; 7th, completely revised edition; Weinheim ; New York : WileyVCH, 2011.Encyclopedia of Chemical Processing; Edited by Sunggyu Lee; New York : Taylor &amp; Francis, 2006.Kirk, Raymond Eller. Encyclopedia of chemical technology / Herman F.Mark et al. New York: John Wiley, 1984.Manual econômico da indústria química - MEIQ / Centro de Pesquisas e Desenvolvimento; 8ed; Camaçari: CEPED, 2007.Shreve, R. Norris; BRINK JR., J. A. Indústrias de processos químicos. Tradução de Horácio Macedo; 4.ed. Rio de Janeiro: Editora Guanabara Koogan, 2008, c1997.T.W. Graham Solomons, Craig B. Fryhle Hoboken, NJ. Organic chemistry; John Wiley, 9th ed; c2008.Revistas:Brazilian Journal of Chemical Engineering, São Paulo, SP: Brazilian Society of Chemical Engineering, v. 11, n. 1, 1995-;</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -618,120 +619,138 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4022.xlsx
+++ b/docs/assets/disciplinas/LOQ4022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar aos alunos uma visão atual dos processos industriais que utilizam a conversão química como rota de transformação da matéria prima em produto. Serão estudados os processos das indústrias de química de base e de transformação.</t>
+    <t>4808662 - Lucrécio Fábio dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4808662 - Lucrécio Fábio dos Santos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução aos Processos Químicos Industriais; NPK / Fertilizantes; Ácido Sulfúrico; Cloro Álcalis; Papel e Celulose; Açúcar e álcool;  Processos Biotecnológicos;</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>.Introdução aos Processos Químicos Industriais; 2.NPK / Fertilizantes3.Ácido Sulfúrico; 4.Cloro Álcalis; 5.Papel e Celulose; 6.Açúcar e álcool; 7.Processos Biotecnológicos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, desenvolvimento de trabalhos e exercícios em sala e fora de sala de aula, discussão de casos práticos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Provas em sala, entrega de trabalhos e exercícios ou casos práticos elaborados fora de sala de aula.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Frequência mínima de 70% e nota igual ou superior a 3,00 e inferior a 5,00 possibilita prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Ullmann’s encyclopedia of industrial chemistry; Editorial advisory board, Giuseppe Bellussi et al.; 7th, completely revised edition; Weinheim ; New York : WileyVCH, 2011.Encyclopedia of Chemical Processing; Edited by Sunggyu Lee; New York : Taylor &amp; Francis, 2006.Kirk, Raymond Eller. Encyclopedia of chemical technology / Herman F.Mark et al. New York: John Wiley, 1984.Manual econômico da indústria química - MEIQ / Centro de Pesquisas e Desenvolvimento; 8ed; Camaçari: CEPED, 2007.Shreve, R. Norris; BRINK JR., J. A. Indústrias de processos químicos. Tradução de Horácio Macedo; 4.ed. Rio de Janeiro: Editora Guanabara Koogan, 2008, c1997.T.W. Graham Solomons, Craig B. Fryhle Hoboken, NJ. Organic chemistry; John Wiley, 9th ed; c2008.Revistas:Brazilian Journal of Chemical Engineering, São Paulo, SP: Brazilian Society of Chemical Engineering, v. 11, n. 1, 1995-;</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,34 +622,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -672,85 +666,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4022.xlsx
+++ b/docs/assets/disciplinas/LOQ4022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar aos alunos uma visão atual dos processos industriais que utilizam a conversão química como rota de transformação da matéria prima em produto. Serão estudados os processos das indústrias de química de base e de transformação.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide students with a current view of industrial processes that use chemical conversion as a route to transform raw material into product. The processes of the basic chemical and transformation industries will be studied.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4808662 - Lucrécio Fábio dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide students with a current view of industrial processes that use chemical conversion as a route to transform raw material into product. The processes of the basic chemical and transformation industries will be studied.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução aos Processos Químicos Industriais; NPK / Fertilizantes; Ácido Sulfúrico; Cloro Álcalis; Papel e Celulose; Açúcar e álcool;  Processos Biotecnológicos;</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>.Introdução aos Processos Químicos Industriais; 2.NPK / Fertilizantes3.Ácido Sulfúrico; 4.Cloro Álcalis; 5.Papel e Celulose; 6.Açúcar e álcool; 7.Processos Biotecnológicos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, desenvolvimento de trabalhos e exercícios em sala e fora de sala de aula, discussão de casos práticos.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, desenvolvimento de trabalhos e exercícios em sala e fora de sala de aula, discussão de casos práticos.</t>
+    <t>Provas em sala, entrega de trabalhos e exercícios ou casos práticos elaborados fora de sala de aula.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Provas em sala, entrega de trabalhos e exercícios ou casos práticos elaborados fora de sala de aula.</t>
+    <t>Frequência mínima de 70% e nota igual ou superior a 3,00 e inferior a 5,00 possibilita prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Frequência mínima de 70% e nota igual ou superior a 3,00 e inferior a 5,00 possibilita prova de recuperação.</t>
+    <t>Ullmann’s encyclopedia of industrial chemistry; Editorial advisory board, Giuseppe Bellussi et al.; 7th, completely revised edition; Weinheim ; New York : WileyVCH, 2011.Encyclopedia of Chemical Processing; Edited by Sunggyu Lee; New York : Taylor &amp; Francis, 2006.Kirk, Raymond Eller. Encyclopedia of chemical technology / Herman F.Mark et al. New York: John Wiley, 1984.Manual econômico da indústria química - MEIQ / Centro de Pesquisas e Desenvolvimento; 8ed; Camaçari: CEPED, 2007.Shreve, R. Norris; BRINK JR., J. A. Indústrias de processos químicos. Tradução de Horácio Macedo; 4.ed. Rio de Janeiro: Editora Guanabara Koogan, 2008, c1997.T.W. Graham Solomons, Craig B. Fryhle Hoboken, NJ. Organic chemistry; John Wiley, 9th ed; c2008.Revistas:Brazilian Journal of Chemical Engineering, São Paulo, SP: Brazilian Society of Chemical Engineering, v. 11, n. 1, 1995-;</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,37 +631,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -666,74 +672,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
